--- a/Excel/hackathon.xlsx
+++ b/Excel/hackathon.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303455\eclipse-workspace\Hackathon\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74C993D-FA93-42C3-9117-D98F5D562051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF64E713-607B-42B9-9A43-BB964DA7CD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{36B4C9D0-7802-4541-B97F-FD75A16D22EA}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>₹ 8,829</t>
   </si>
@@ -170,7 +170,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -554,16 +553,211 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E628CE-5363-47C0-9497-4F3068709459}">
-  <dimension ref="D6"/>
+  <dimension ref="A2:A41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="6">
-      <c r="D6" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>41</v>
       </c>
     </row>
